--- a/3_Charts_Graphs/1_Charts_Intro/1_Parts_of_a_Chart.xlsx
+++ b/3_Charts_Graphs/1_Charts_Intro/1_Parts_of_a_Chart.xlsx
@@ -1,32 +1,289 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\3_Charts_Graphs\1_Charts_Intro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECD0CB-EEFC-4A3E-B560-F71B66C8EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Aggregated" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+  <si>
+    <t>job_title_short</t>
+  </si>
+  <si>
+    <t>job_posted_date</t>
+  </si>
+  <si>
+    <t>job_location</t>
+  </si>
+  <si>
+    <t>job_country</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>job_via</t>
+  </si>
+  <si>
+    <t>job_schedule_type</t>
+  </si>
+  <si>
+    <t>salary_year_avg</t>
+  </si>
+  <si>
+    <t>job_work_from_home</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>Aliso Viejo, CA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Adroit Worldwide Media, Inc. (AWM Smart Shelf)</t>
+  </si>
+  <si>
+    <t>via ZipRecruiter</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Jobmatchingpartner Ltd</t>
+  </si>
+  <si>
+    <t>via LinkedIn Malta</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Reston, VA</t>
+  </si>
+  <si>
+    <t>Octo Consulting Group</t>
+  </si>
+  <si>
+    <t>via Snagajob</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Cupertino, CA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Senior Data Analyst</t>
+  </si>
+  <si>
+    <t>Rochester, MN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Securian Financial Group</t>
+  </si>
+  <si>
+    <t>Des Moines, IA</t>
+  </si>
+  <si>
+    <t>EMC Insurance Companies</t>
+  </si>
+  <si>
+    <t>Full-time and Part-time</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>The E Group</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Okaya Corp</t>
+  </si>
+  <si>
+    <t>via Indeed</t>
+  </si>
+  <si>
+    <t>Dublin, CA</t>
+  </si>
+  <si>
+    <t>NextPhase</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>via LinkedIn</t>
+  </si>
+  <si>
+    <t>Sunnyvale, CA</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Pasadena, CA</t>
+  </si>
+  <si>
+    <t>Harnham</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>via IT JobServe</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Standard Bank Group</t>
+  </si>
+  <si>
+    <t>via Ai-Jobs.net</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Vattenfall</t>
+  </si>
+  <si>
+    <t>Amsterdam, Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Devoteam</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>DISYS</t>
+  </si>
+  <si>
+    <t>Broomfield, CO</t>
+  </si>
+  <si>
+    <t>Datalab USA</t>
+  </si>
+  <si>
+    <t>Fortira Inc.</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Denodo Technologies</t>
+  </si>
+  <si>
+    <t>via Ladders</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +302,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +342,1073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of Job Postings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Title</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Final!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Final!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Business Analyst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B698-4DCF-BC37-08401F4629E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1877610095"/>
+        <c:axId val="1877616815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1877610095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Job Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877616815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1877616815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877610095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FFC770-9E77-8D20-420E-599AC880434F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1673,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44996.547291666669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>135000</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45097.915243055562</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>35000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45173.250416666669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45156.253321759257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45147.802951388891</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45202.753101851849</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44949.850462962961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45001.627175925933</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>115000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45041.375868055547</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45106.587094907409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>105000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45029.919687499998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>195000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45091.502789351849</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>165000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45175.543124999997</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>281450.5</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45117.778391203698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>70000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44938.614351851851</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>98301.5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44985.354097222233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>89100</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45063.792291666658</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45017.004837962973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>87500</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45169.64203703704</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45000.542685185188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>90000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BA7C3-F37D-4D49-96A0-C47F10965E01}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(Original!$A:$A,Aggregated!A8)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FF6BA4-114E-45C0-BE18-828A0998A1A6}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C5:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>